--- a/data/Дистрибьюторы.xlsx
+++ b/data/Дистрибьюторы.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gayda\PycharmProjects\VKR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gayda\PycharmProjects\VKR\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C180106-3756-407F-BF46-ED87A2E3A62C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E55594E0-2906-4AAB-9622-06865D2ACDF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,13 +24,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="3">
@@ -42,12 +47,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -55,14 +60,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -365,10 +387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="J10" sqref="I10:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -379,14 +401,37 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/Дистрибьюторы.xlsx
+++ b/data/Дистрибьюторы.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gayda\PycharmProjects\VKR\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E55594E0-2906-4AAB-9622-06865D2ACDF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D586ED6-E027-4485-A661-F7EDBA28E3F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -47,7 +47,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -79,12 +91,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -387,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="I10:J10"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -401,7 +415,7 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
     </row>
@@ -411,12 +425,12 @@
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
+      <c r="A5" s="6">
         <v>5</v>
       </c>
     </row>
@@ -426,12 +440,9 @@
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
+      <c r="A7" s="5">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/Дистрибьюторы.xlsx
+++ b/data/Дистрибьюторы.xlsx
@@ -1,65 +1,54 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gayda\PycharmProjects\VKR\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D586ED6-E027-4485-A661-F7EDBA28E3F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12696" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="10"/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <u val="single"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill>
+        <fgColor rgb="00FFFFFF"/>
+      </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
+      <patternFill patternType="gray125">
+        <fgColor rgb="00FFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="00FFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -88,31 +77,90 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -400,51 +448,76 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A7"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1">
+    <row r="1">
+      <c r="A1" s="1" t="n">
         <v>44245</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
-        <v>7</v>
-      </c>
-    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>azazelik@mail.ru</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>gaydarenko@mail.ru</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>father@google.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>mother@family.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="inlineStr">
+        <is>
+          <t>wife@love.me</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>cat@112.55</t>
+        </is>
+      </c>
+    </row>
+    <row r="8"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A4" r:id="rId3"/>
+    <hyperlink ref="A5" r:id="rId4"/>
+    <hyperlink ref="A6" r:id="rId5"/>
+    <hyperlink ref="A7" r:id="rId6"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/Дистрибьюторы.xlsx
+++ b/data/Дистрибьюторы.xlsx
@@ -35,7 +35,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill>
         <fgColor rgb="00FFFFFF"/>
@@ -44,6 +44,12 @@
     <fill>
       <patternFill patternType="gray125">
         <fgColor rgb="00FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFFFF"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -83,10 +89,10 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -456,53 +462,56 @@
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <cols>
+    <col width="18" customWidth="1" min="1" max="1"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="n">
+      <c r="A1" s="3" t="n">
         <v>44245</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" s="4" t="inlineStr">
         <is>
           <t>azazelik@mail.ru</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="inlineStr">
+      <c r="A3" s="2" t="inlineStr">
         <is>
           <t>gaydarenko@mail.ru</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>father@google.com</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>mother@family.com</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="inlineStr">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>wife@love.me</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="inlineStr">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>cat@112.55</t>
         </is>

--- a/data/Дистрибьюторы.xlsx
+++ b/data/Дистрибьюторы.xlsx
@@ -35,7 +35,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill>
         <fgColor rgb="00FFFFFF"/>
@@ -44,18 +44,6 @@
     <fill>
       <patternFill patternType="gray125">
         <fgColor rgb="00FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFFFFF"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -89,10 +77,10 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -459,24 +447,32 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="18" customWidth="1" min="1" max="1"/>
+    <col width="15.109375" customWidth="1" style="3" min="1" max="1"/>
+    <col width="19.44140625" customWidth="1" style="3" min="2" max="2"/>
+    <col width="8.88671875" customWidth="1" style="3" min="3" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="n">
-        <v>44245</v>
-      </c>
+      <c r="A1" s="1" t="n">
+        <v>44257.93371943884</v>
+      </c>
+      <c r="B1" s="2" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Азазель</t>
+        </is>
+      </c>
+      <c r="B2" s="4" t="inlineStr">
         <is>
           <t>azazelik@mail.ru</t>
         </is>
@@ -485,47 +481,71 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
+          <t>Гайдаренко Е.Г.</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
           <t>gaydarenko@mail.ru</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>Жена</t>
+        </is>
+      </c>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>wife@love.me</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>Кот и кошка</t>
+        </is>
+      </c>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>cat@112.55</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>Мама</t>
+        </is>
+      </c>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>mother@family.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>Папа</t>
+        </is>
+      </c>
+      <c r="B7" s="4" t="inlineStr">
         <is>
           <t>father@google.com</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>mother@family.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>wife@love.me</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>cat@112.55</t>
-        </is>
-      </c>
-    </row>
-    <row r="8"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A3" r:id="rId2"/>
-    <hyperlink ref="A4" r:id="rId3"/>
-    <hyperlink ref="A5" r:id="rId4"/>
-    <hyperlink ref="A6" r:id="rId5"/>
-    <hyperlink ref="A7" r:id="rId6"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink ref="B7" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/Дистрибьюторы.xlsx
+++ b/data/Дистрибьюторы.xlsx
@@ -462,7 +462,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="n">
-        <v>44257.93371943884</v>
+        <v>44257.94575419412</v>
       </c>
       <c r="B1" s="2" t="n"/>
     </row>

--- a/data/Дистрибьюторы.xlsx
+++ b/data/Дистрибьюторы.xlsx
@@ -462,7 +462,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="n">
-        <v>44257.94575419412</v>
+        <v>44258.73298054032</v>
       </c>
       <c r="B1" s="2" t="n"/>
     </row>

--- a/data/Дистрибьюторы.xlsx
+++ b/data/Дистрибьюторы.xlsx
@@ -462,7 +462,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="n">
-        <v>44258.73298054032</v>
+        <v>44258.73968936461</v>
       </c>
       <c r="B1" s="2" t="n"/>
     </row>

--- a/data/Дистрибьюторы.xlsx
+++ b/data/Дистрибьюторы.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12696" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2136" yWindow="900" windowWidth="20904" windowHeight="8964" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -35,15 +35,23 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
-      <patternFill>
-        <fgColor rgb="00FFFFFF"/>
+      <patternFill/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="00FFFFFF"/>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -75,12 +83,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -450,19 +462,20 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
     <col width="15.109375" customWidth="1" style="3" min="1" max="1"/>
     <col width="19.44140625" customWidth="1" style="3" min="2" max="2"/>
-    <col width="8.88671875" customWidth="1" style="3" min="3" max="16384"/>
+    <col width="8.88671875" customWidth="1" style="3" min="3" max="3"/>
+    <col width="8.88671875" customWidth="1" style="3" min="4" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="n">
-        <v>44258.73968936461</v>
+        <v>44263.73967612229</v>
       </c>
       <c r="B1" s="2" t="n"/>
     </row>
@@ -479,24 +492,24 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" s="5" t="inlineStr">
         <is>
           <t>Гайдаренко Е.Г.</t>
         </is>
       </c>
-      <c r="B3" s="4" t="inlineStr">
+      <c r="B3" s="6" t="inlineStr">
         <is>
           <t>gaydarenko@mail.ru</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="A4" s="7" t="inlineStr">
         <is>
           <t>Жена</t>
         </is>
       </c>
-      <c r="B4" s="4" t="inlineStr">
+      <c r="B4" s="8" t="inlineStr">
         <is>
           <t>wife@love.me</t>
         </is>

--- a/data/Дистрибьюторы.xlsx
+++ b/data/Дистрибьюторы.xlsx
@@ -475,7 +475,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="n">
-        <v>44263.73967612229</v>
+        <v>44264.98049290985</v>
       </c>
       <c r="B1" s="2" t="n"/>
     </row>

--- a/data/Дистрибьюторы.xlsx
+++ b/data/Дистрибьюторы.xlsx
@@ -475,7 +475,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="n">
-        <v>44264.98049290985</v>
+        <v>44264.98890784032</v>
       </c>
       <c r="B1" s="2" t="n"/>
     </row>

--- a/data/Дистрибьюторы.xlsx
+++ b/data/Дистрибьюторы.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2136" yWindow="900" windowWidth="20904" windowHeight="8964" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1032" yWindow="2952" windowWidth="20904" windowHeight="8964" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -37,20 +37,24 @@
   </fonts>
   <fills count="4">
     <fill>
-      <patternFill/>
+      <patternFill>
+        <fgColor rgb="00FFFFFF"/>
+      </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <fgColor rgb="00FFFFFF"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor rgb="00FFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor rgb="00FFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -462,20 +466,20 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
     <col width="15.109375" customWidth="1" style="3" min="1" max="1"/>
     <col width="19.44140625" customWidth="1" style="3" min="2" max="2"/>
-    <col width="8.88671875" customWidth="1" style="3" min="3" max="3"/>
-    <col width="8.88671875" customWidth="1" style="3" min="4" max="16384"/>
+    <col width="8.88671875" customWidth="1" style="3" min="3" max="15"/>
+    <col width="8.88671875" customWidth="1" style="3" min="16" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="n">
-        <v>44264.98890784032</v>
+        <v>44265.03214986161</v>
       </c>
       <c r="B1" s="2" t="n"/>
     </row>

--- a/data/Дистрибьюторы.xlsx
+++ b/data/Дистрибьюторы.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1032" yWindow="2952" windowWidth="20904" windowHeight="8964" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1380" yWindow="3300" windowWidth="20904" windowHeight="8964" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -37,24 +37,20 @@
   </fonts>
   <fills count="4">
     <fill>
-      <patternFill>
-        <fgColor rgb="00FFFFFF"/>
-      </patternFill>
+      <patternFill/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="00FFFFFF"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFFFFF"/>
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFFFFF"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -87,16 +83,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -466,42 +461,42 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="15.109375" customWidth="1" style="3" min="1" max="1"/>
-    <col width="19.44140625" customWidth="1" style="3" min="2" max="2"/>
-    <col width="8.88671875" customWidth="1" style="3" min="3" max="15"/>
-    <col width="8.88671875" customWidth="1" style="3" min="16" max="16384"/>
+    <col width="15.109375" customWidth="1" style="1" min="1" max="1"/>
+    <col width="19.44140625" customWidth="1" style="1" min="2" max="2"/>
+    <col width="8.88671875" customWidth="1" style="1" min="3" max="24"/>
+    <col width="8.88671875" customWidth="1" style="1" min="25" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="n">
-        <v>44265.03214986161</v>
-      </c>
-      <c r="B1" s="2" t="n"/>
+      <c r="A1" s="2" t="n">
+        <v>44265.77931956569</v>
+      </c>
+      <c r="B1" s="7" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" s="6" t="inlineStr">
         <is>
           <t>Азазель</t>
         </is>
       </c>
-      <c r="B2" s="4" t="inlineStr">
+      <c r="B2" s="5" t="inlineStr">
         <is>
           <t>azazelik@mail.ru</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="inlineStr">
+      <c r="A3" s="7" t="inlineStr">
         <is>
           <t>Гайдаренко Е.Г.</t>
         </is>
       </c>
-      <c r="B3" s="6" t="inlineStr">
+      <c r="B3" s="4" t="inlineStr">
         <is>
           <t>gaydarenko@mail.ru</t>
         </is>
@@ -513,14 +508,14 @@
           <t>Жена</t>
         </is>
       </c>
-      <c r="B4" s="8" t="inlineStr">
+      <c r="B4" s="4" t="inlineStr">
         <is>
           <t>wife@love.me</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="A5" s="7" t="inlineStr">
         <is>
           <t>Кот и кошка</t>
         </is>
@@ -532,7 +527,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="inlineStr">
+      <c r="A6" s="7" t="inlineStr">
         <is>
           <t>Мама</t>
         </is>
@@ -544,7 +539,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="inlineStr">
+      <c r="A7" s="7" t="inlineStr">
         <is>
           <t>Папа</t>
         </is>

--- a/data/Дистрибьюторы.xlsx
+++ b/data/Дистрибьюторы.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1380" yWindow="3300" windowWidth="20904" windowHeight="8964" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="300" yWindow="2328" windowWidth="20904" windowHeight="8964" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -35,7 +35,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill/>
     </fill>
@@ -51,6 +51,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -83,15 +95,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -468,35 +481,35 @@
   <cols>
     <col width="15.109375" customWidth="1" style="1" min="1" max="1"/>
     <col width="19.44140625" customWidth="1" style="1" min="2" max="2"/>
-    <col width="8.88671875" customWidth="1" style="1" min="3" max="24"/>
-    <col width="8.88671875" customWidth="1" style="1" min="25" max="16384"/>
+    <col width="8.88671875" customWidth="1" style="1" min="3" max="27"/>
+    <col width="8.88671875" customWidth="1" style="1" min="28" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="n">
-        <v>44265.77931956569</v>
+        <v>44265.95712833891</v>
       </c>
       <c r="B1" s="7" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="6" t="inlineStr">
+      <c r="A2" s="5" t="inlineStr">
         <is>
           <t>Азазель</t>
         </is>
       </c>
-      <c r="B2" s="5" t="inlineStr">
+      <c r="B2" s="4" t="inlineStr">
         <is>
           <t>azazelik@mail.ru</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="7" t="inlineStr">
+      <c r="A3" s="8" t="inlineStr">
         <is>
           <t>Гайдаренко Е.Г.</t>
         </is>
       </c>
-      <c r="B3" s="4" t="inlineStr">
+      <c r="B3" s="3" t="inlineStr">
         <is>
           <t>gaydarenko@mail.ru</t>
         </is>
@@ -508,19 +521,19 @@
           <t>Жена</t>
         </is>
       </c>
-      <c r="B4" s="4" t="inlineStr">
+      <c r="B4" s="3" t="inlineStr">
         <is>
           <t>wife@love.me</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="7" t="inlineStr">
+      <c r="A5" s="6" t="inlineStr">
         <is>
           <t>Кот и кошка</t>
         </is>
       </c>
-      <c r="B5" s="4" t="inlineStr">
+      <c r="B5" s="3" t="inlineStr">
         <is>
           <t>cat@112.55</t>
         </is>
@@ -532,7 +545,7 @@
           <t>Мама</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr">
+      <c r="B6" s="3" t="inlineStr">
         <is>
           <t>mother@family.com</t>
         </is>
@@ -544,7 +557,7 @@
           <t>Папа</t>
         </is>
       </c>
-      <c r="B7" s="4" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>father@google.com</t>
         </is>

--- a/data/Дистрибьюторы.xlsx
+++ b/data/Дистрибьюторы.xlsx
@@ -487,7 +487,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="n">
-        <v>44265.95712833891</v>
+        <v>44269.62054414667</v>
       </c>
       <c r="B1" s="7" t="n"/>
     </row>

--- a/data/Дистрибьюторы.xlsx
+++ b/data/Дистрибьюторы.xlsx
@@ -35,7 +35,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill/>
     </fill>
@@ -50,13 +50,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -64,6 +64,11 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
       </patternFill>
     </fill>
   </fills>
@@ -95,16 +100,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" pivotButton="0" quotePrefix="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -481,59 +490,59 @@
   <cols>
     <col width="15.109375" customWidth="1" style="1" min="1" max="1"/>
     <col width="19.44140625" customWidth="1" style="1" min="2" max="2"/>
-    <col width="8.88671875" customWidth="1" style="1" min="3" max="27"/>
-    <col width="8.88671875" customWidth="1" style="1" min="28" max="16384"/>
+    <col width="8.88671875" customWidth="1" style="1" min="3" max="37"/>
+    <col width="8.88671875" customWidth="1" style="1" min="38" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="n">
-        <v>44269.62054414667</v>
-      </c>
-      <c r="B1" s="7" t="n"/>
+        <v>44270.75834880067</v>
+      </c>
+      <c r="B1" s="8" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="inlineStr">
+      <c r="A2" s="11" t="inlineStr">
         <is>
           <t>Азазель</t>
         </is>
       </c>
-      <c r="B2" s="4" t="inlineStr">
+      <c r="B2" s="12" t="inlineStr">
         <is>
           <t>azazelik@mail.ru</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="8" t="inlineStr">
+      <c r="A3" s="10" t="inlineStr">
         <is>
           <t>Гайдаренко Е.Г.</t>
         </is>
       </c>
-      <c r="B3" s="3" t="inlineStr">
+      <c r="B3" s="9" t="inlineStr">
         <is>
           <t>gaydarenko@mail.ru</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="7" t="inlineStr">
+      <c r="A4" s="8" t="inlineStr">
         <is>
           <t>Жена</t>
         </is>
       </c>
-      <c r="B4" s="3" t="inlineStr">
+      <c r="B4" s="6" t="inlineStr">
         <is>
           <t>wife@love.me</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="6" t="inlineStr">
+      <c r="A5" s="4" t="inlineStr">
         <is>
           <t>Кот и кошка</t>
         </is>
       </c>
-      <c r="B5" s="3" t="inlineStr">
+      <c r="B5" s="9" t="inlineStr">
         <is>
           <t>cat@112.55</t>
         </is>
@@ -545,19 +554,19 @@
           <t>Мама</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B6" s="9" t="inlineStr">
         <is>
           <t>mother@family.com</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="7" t="inlineStr">
+      <c r="A7" s="8" t="inlineStr">
         <is>
           <t>Папа</t>
         </is>
       </c>
-      <c r="B7" s="3" t="inlineStr">
+      <c r="B7" s="9" t="inlineStr">
         <is>
           <t>father@google.com</t>
         </is>

--- a/data/Дистрибьюторы.xlsx
+++ b/data/Дистрибьюторы.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="300" yWindow="2328" windowWidth="20904" windowHeight="8964" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="648" yWindow="2676" windowWidth="20904" windowHeight="8964" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -35,7 +35,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
@@ -44,31 +44,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
       </patternFill>
     </fill>
   </fills>
@@ -100,20 +77,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -483,54 +453,54 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
     <col width="15.109375" customWidth="1" style="1" min="1" max="1"/>
     <col width="19.44140625" customWidth="1" style="1" min="2" max="2"/>
-    <col width="8.88671875" customWidth="1" style="1" min="3" max="37"/>
-    <col width="8.88671875" customWidth="1" style="1" min="38" max="16384"/>
+    <col width="8.88671875" customWidth="1" style="1" min="3" max="38"/>
+    <col width="8.88671875" customWidth="1" style="1" min="39" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="n">
-        <v>44270.75834880067</v>
-      </c>
-      <c r="B1" s="8" t="n"/>
+        <v>44271.77956384415</v>
+      </c>
+      <c r="B1" s="3" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="11" t="inlineStr">
+      <c r="A2" s="4" t="inlineStr">
         <is>
           <t>Азазель</t>
         </is>
       </c>
-      <c r="B2" s="12" t="inlineStr">
+      <c r="B2" s="5" t="inlineStr">
         <is>
           <t>azazelik@mail.ru</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="10" t="inlineStr">
+      <c r="A3" s="4" t="inlineStr">
         <is>
           <t>Гайдаренко Е.Г.</t>
         </is>
       </c>
-      <c r="B3" s="9" t="inlineStr">
+      <c r="B3" s="5" t="inlineStr">
         <is>
           <t>gaydarenko@mail.ru</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="8" t="inlineStr">
+      <c r="A4" s="4" t="inlineStr">
         <is>
           <t>Жена</t>
         </is>
       </c>
-      <c r="B4" s="6" t="inlineStr">
+      <c r="B4" s="5" t="inlineStr">
         <is>
           <t>wife@love.me</t>
         </is>
@@ -542,31 +512,31 @@
           <t>Кот и кошка</t>
         </is>
       </c>
-      <c r="B5" s="9" t="inlineStr">
+      <c r="B5" s="5" t="inlineStr">
         <is>
           <t>cat@112.55</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="7" t="inlineStr">
+      <c r="A6" s="4" t="inlineStr">
         <is>
           <t>Мама</t>
         </is>
       </c>
-      <c r="B6" s="9" t="inlineStr">
+      <c r="B6" s="5" t="inlineStr">
         <is>
           <t>mother@family.com</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="8" t="inlineStr">
+      <c r="A7" s="4" t="inlineStr">
         <is>
           <t>Папа</t>
         </is>
       </c>
-      <c r="B7" s="9" t="inlineStr">
+      <c r="B7" s="5" t="inlineStr">
         <is>
           <t>father@google.com</t>
         </is>

--- a/data/Дистрибьюторы.xlsx
+++ b/data/Дистрибьюторы.xlsx
@@ -466,7 +466,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="n">
-        <v>44271.77956384415</v>
+        <v>44271.8595732916</v>
       </c>
       <c r="B1" s="3" t="n"/>
     </row>
